--- a/data/question_test3.xlsx
+++ b/data/question_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468726B-AE16-48A1-BAF7-E1A0E7CF12E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAE909-42C4-4636-983C-8FFFEC0D2B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3076" windowWidth="14138" windowHeight="7881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>始まり</t>
   </si>
@@ -43,6 +43,144 @@
     <t>データ元</t>
   </si>
   <si>
+    <t>ファイルパス</t>
+  </si>
+  <si>
+    <t>収容所に連れて行かれたのね、一箇所じゃないですよ。全部で7箇所ほどあっちこっちへ引っ張り回されてね、そこでいろんな重労働を強制されたわけや</t>
+  </si>
+  <si>
+    <t>全部で何箇所の収容所に連れていかれましたか？</t>
+  </si>
+  <si>
+    <t>収容所について教えてください</t>
+  </si>
+  <si>
+    <t>動画</t>
+  </si>
+  <si>
+    <t>data\\00617.mp4</t>
+  </si>
+  <si>
+    <t>一番最初の収容所はね、これはまたひどいところで、駅から歩いて80キロ。それを3日間歩かされた。山の中に連れて行かれた。そこで何をするかというと、最初は伐採でした。ちょうど10月頃から冬にかけて冬にかけての時期だった</t>
+  </si>
+  <si>
+    <t>何日間歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>どれだけ長い距離を歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>最初の収容所はどうでしたか？</t>
+  </si>
+  <si>
+    <t>その収容所がまた、ひどい収容所で、ガスも電気も便所も何も使えない。</t>
+  </si>
+  <si>
+    <t>収容所ではガスや電気、トイレは使えましたか？</t>
+  </si>
+  <si>
+    <t>収容所に電気は通っていましたか？</t>
+  </si>
+  <si>
+    <t>あのね、食べてたもんは大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀です。</t>
+  </si>
+  <si>
+    <t>普段は何食、食べることができましたか？</t>
+  </si>
+  <si>
+    <t>収容所では何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼は350グラムの黒パンが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
+  </si>
+  <si>
+    <t>昼ごはんは何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼食でどのくらいの量を食べられましたか？</t>
+  </si>
+  <si>
+    <t>だから、入った年には、みんな栄養失調になっていた。そんなこったで伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がないばいに。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
+  </si>
+  <si>
+    <t>死者は出ましたか？</t>
+  </si>
+  <si>
+    <t>栄養失調になる人はいましたか？</t>
+  </si>
+  <si>
+    <t>ごはんの影響は何かありましたか？</t>
+  </si>
+  <si>
+    <t>船場へ行くと船から米やメリケン粉とか砂糖とか、80キロから90キロぐらいの袋があり、船艇から陸へ持ち上げる。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
+  </si>
+  <si>
+    <t>どんな労働をさせられましたか？</t>
+  </si>
+  <si>
+    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
+  </si>
+  <si>
+    <t>労働は何をしましたか？</t>
+  </si>
+  <si>
+    <t>だいたいノルマ制で一日だいたいこれだけの仕事をせえということを厳しい言うけどね。やけど、できんかったらもうしゃあない。できなんだらどうなるか言うたら、出来なんだら、めしやらんとか減らすとか、そんなことを言っていじめたりなんかしてたけど</t>
+  </si>
+  <si>
+    <t>仕事にノルマはありましたか？</t>
+  </si>
+  <si>
+    <t>仕事量はどうでしたか？</t>
+  </si>
+  <si>
+    <t>仕事で厳しく言われましたか？</t>
+  </si>
+  <si>
+    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いて、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
+  </si>
+  <si>
+    <t>病気にかかりましたか？</t>
+  </si>
+  <si>
+    <t>体を壊したことはありますか？</t>
+  </si>
+  <si>
+    <t>3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
+  </si>
+  <si>
+    <t>死にそうだなって思ったこと、体感したことはありますか？</t>
+  </si>
+  <si>
+    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
+  </si>
+  <si>
+    <t>何回死にそうだなと思いましたか？</t>
+  </si>
+  <si>
+    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。37キロは小学生の5、6年生ぐらいの体重やね</t>
+  </si>
+  <si>
+    <t>体重はどれくらい減りましたか？</t>
+  </si>
+  <si>
+    <t>帰ってきたときの体の状況はどうでしたか？</t>
+  </si>
+  <si>
+    <t>体重はどうでしたか？</t>
+  </si>
+  <si>
+    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
+  </si>
+  <si>
+    <t>どうして帰ってこれたと思いますか？</t>
+  </si>
+  <si>
+    <t>抑留を生き抜いた秘訣は何ですか？</t>
+  </si>
+  <si>
     <t>これはもうあかん。これも弱ったことやろーで、少々残っておったパンをね、1日ぐらいは食べたけどな、もう2日目から何にも食べられず、80キロの道を3日間で歩いたんや。</t>
   </si>
   <si>
@@ -52,9 +190,6 @@
     <t>どれくらい歩いたことがありますか？</t>
   </si>
   <si>
-    <t>動画</t>
-  </si>
-  <si>
     <t>3日目になって昼までなんとか生きとったけど、昼出発で意識がないようになってしまった。</t>
   </si>
   <si>
@@ -178,206 +313,64 @@
     <t>今までの人生で助けれたと思うことはありますか？</t>
   </si>
   <si>
-    <t>収容所に連れて行かれたのね、一箇所じゃないですよ。全部で7箇所ほどあっちこっちへ引っ張り回されてね、そこでいろんな重労働を強制されたわけや</t>
-  </si>
-  <si>
-    <t>全部で何箇所の収容所に連れていかれましたか？</t>
-  </si>
-  <si>
-    <t>収容所について教えてください</t>
-  </si>
-  <si>
-    <t>一番最初の収容所はね、これはまたひどいところで、駅から歩いて80キロ。それを3日間歩かされた。山の中に連れて行かれた。そこで何をするかというと、最初は伐採でした。ちょうど10月頃から冬にかけて冬にかけての時期だった</t>
-  </si>
-  <si>
-    <t>何日間歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>どれだけ長い距離を歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>最初の収容所はどうでしたか？</t>
-  </si>
-  <si>
-    <t>その収容所がまた、ひどい収容所で、ガスも電気も便所も何も使えない。</t>
-  </si>
-  <si>
-    <t>収容所ではガスや電気、トイレは使えましたか？</t>
-  </si>
-  <si>
-    <t>収容所に電気は通っていましたか？</t>
-  </si>
-  <si>
-    <t>あのね、食べてたもんは大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀です。</t>
-  </si>
-  <si>
-    <t>普段は何食、食べることができましたか？</t>
-  </si>
-  <si>
-    <t>収容所では何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼は350グラムの黒パンが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
-  </si>
-  <si>
-    <t>昼ごはんは何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼食でどのくらいの量を食べられましたか？</t>
-  </si>
-  <si>
-    <t>栄養失調になる人はいましたか？</t>
-  </si>
-  <si>
-    <t>ごはんの影響は何かありましたか？</t>
-  </si>
-  <si>
-    <t>船場へ行くと船から米やメリケン粉とか砂糖とか、80キロから90キロぐらいの袋があり、船艇から陸へ持ち上げる。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
-  </si>
-  <si>
-    <t>どんな労働をさせられましたか？</t>
-  </si>
-  <si>
-    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
-  </si>
-  <si>
-    <t>労働は何をしましたか？</t>
-  </si>
-  <si>
-    <t>仕事にノルマはありましたか？</t>
-  </si>
-  <si>
-    <t>仕事量はどうでしたか？</t>
-  </si>
-  <si>
-    <t>仕事で厳しく言われましたか？</t>
-  </si>
-  <si>
-    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いて、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
-  </si>
-  <si>
-    <t>体を壊したことはありますか？</t>
-  </si>
-  <si>
-    <t>3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
-  </si>
-  <si>
-    <t>死にそうだなって思ったこと、体感したことはありますか？</t>
-  </si>
-  <si>
-    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
-  </si>
-  <si>
-    <t>何回死にそうだなと思いましたか？</t>
-  </si>
-  <si>
-    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。37キロは小学生の5、6年生ぐらいの体重やね</t>
-  </si>
-  <si>
-    <t>体重はどれくらい減りましたか？</t>
-  </si>
-  <si>
-    <t>帰ってきたときの体の状況はどうでしたか？</t>
-  </si>
-  <si>
-    <t>体重はどうでしたか？</t>
-  </si>
-  <si>
-    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
-  </si>
-  <si>
-    <t>どうして帰ってこれたと思いますか？</t>
-  </si>
-  <si>
-    <t>抑留を生き抜いた秘訣は何ですか？</t>
+    <t>いよいよシベリア鉄道に乗せられて、これで日本に帰れるぞということでみんなぐっすり寝てしまった。翌日、朝起きたら列車がシベリア鉄道を走っているけど、太陽が列車の後方から上がっているわけ。だまされたと憤慨した</t>
+  </si>
+  <si>
+    <t>日本に帰れなかったときの気持ちはどんなものでしたか？</t>
+  </si>
+  <si>
+    <t>抑留された時の気持ちはどうでしたか？</t>
   </si>
   <si>
     <t>data\\voice\\pb_1.wav</t>
   </si>
   <si>
-    <t>いよいよシベリア鉄道に乗せられて、これで日本に帰れるぞということでみんなぐっすり寝てしまった。翌日、朝起きたら列車がシベリア鉄道を走っているけど、太陽が列車の後方から上がっているわけ。だまされたと憤慨した</t>
-  </si>
-  <si>
-    <t>日本に帰れなかったときの気持ちはどんなものでしたか？</t>
-  </si>
-  <si>
-    <t>抑留された時の気持ちはどうでしたか？</t>
+    <t>逃亡の疑いで引っ張り出されて、１０００人がいる面前で軍刀持った人が切りつけていって、倒れたところを自動小銃を持った２人がだーっと撃って。お前ら見せしめやぞと</t>
+  </si>
+  <si>
+    <t>逃げ出そうとしたことはありますか？</t>
+  </si>
+  <si>
+    <t>逃げた人はどうなりましたか？</t>
   </si>
   <si>
     <t>data\\voice\\pb_2.wav</t>
   </si>
   <si>
-    <t>逃げた人はどうなりましたか？</t>
+    <t>夜中になったら何か知らないけど炊いて食べている子がおるんや。何を食べとるんやろうって最初はわからなかったけど。毎日死んでいきますやろ。人体を切ってきてな、炊いて食べていたらしい。それくらいの酷い生活やった</t>
+  </si>
+  <si>
+    <t>ごはんが足らなかった場合どうしていましたか？</t>
+  </si>
+  <si>
+    <t>ごはんは足りていましたか？</t>
   </si>
   <si>
     <t>data\\voice\\pb_3.wav</t>
   </si>
   <si>
-    <t>夜中になったら何か知らないけど炊いて食べている子がおるんや。何を食べとるんやろうって最初はわからなかったけど。毎日死んでいきますやろ。人体を切ってきてな、炊いて食べていたらしい。それくらいの酷い生活やった</t>
-  </si>
-  <si>
-    <t>ごはんが足らなかった場合どうしていましたか？</t>
-  </si>
-  <si>
-    <t>ごはんは足りていましたか？</t>
+    <t>仲間とは食べ物の話ばっかり。零下40度にもなるシベリアじゃ、氷ぐらいしか食べるものがないんや</t>
+  </si>
+  <si>
+    <t>どれだけ寒かったですか？</t>
+  </si>
+  <si>
+    <t>仲間とはどんな話をしましたか？</t>
   </si>
   <si>
     <t>data\\voice\\pb_4.wav</t>
   </si>
   <si>
-    <t>仲間とは食べ物の話ばっかり。零下40度にもなるシベリアじゃ、氷ぐらいしか食べるものがないんや</t>
-  </si>
-  <si>
-    <t>どれだけ寒かったですか？</t>
-  </si>
-  <si>
-    <t>仲間とはどんな話をしましたか？</t>
+    <t>鼻が白くなって初めて凍傷と気づいて、慌ててこすって血行をよくした。凍傷で手や指を切った人もたくさんいた</t>
+  </si>
+  <si>
+    <t>凍傷になりましたか？</t>
+  </si>
+  <si>
+    <t>寒さでけがはしましたか？</t>
   </si>
   <si>
     <t>data\\voice\\pb_5.wav</t>
-  </si>
-  <si>
-    <t>鼻が白くなって初めて凍傷と気づいて、慌ててこすって血行をよくした。凍傷で手や指を切った人もたくさんいた</t>
-  </si>
-  <si>
-    <t>寒さでけがはしましたか？</t>
-  </si>
-  <si>
-    <t>凍傷になりましたか？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>だいたいノルマ制で一日だいたいこれだけの仕事をせえということを厳しい言うけどね。やけど、できんかったらもうしゃあない。できなんだらどうなるか言うたら、出来なんだら、めしやらんとか減らすとか、そんなことを言っていじめたりなんかしてたけど</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>逃げ出そうとしたことはありますか？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>逃亡の疑いで引っ張り出されて、１０００人がいる面前で軍刀持った人が切りつけていって、倒れたところを自動小銃を持った２人がだーっと撃って。お前ら見せしめやぞと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>病気にかかりましたか？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>死者は出ましたか？</t>
-    <rPh sb="0" eb="2">
-      <t>シシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>だから、入った年には、みんな栄養失調になっていた。そんなこったで伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がないばいに。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -453,7 +446,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FD34E746-160A-4E7F-9509-F3C9851CB761}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{75791D84-7264-4BBE-8EA6-F1B2B6B16B3E}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -751,15 +744,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +774,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>275</v>
       </c>
@@ -790,19 +786,22 @@
         <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>295</v>
       </c>
@@ -810,22 +809,25 @@
         <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>333</v>
       </c>
@@ -833,19 +835,22 @@
         <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>420</v>
       </c>
@@ -853,22 +858,25 @@
         <v>437</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>457</v>
       </c>
@@ -876,19 +884,22 @@
         <v>484</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>484</v>
       </c>
@@ -896,22 +907,25 @@
         <v>516</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>591</v>
       </c>
@@ -919,22 +933,25 @@
         <v>628</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>726</v>
       </c>
@@ -942,22 +959,25 @@
         <v>753</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>752</v>
       </c>
@@ -965,19 +985,22 @@
         <v>773</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>772</v>
       </c>
@@ -985,22 +1008,25 @@
         <v>807</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>803</v>
       </c>
@@ -1008,22 +1034,25 @@
         <v>822</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>820</v>
       </c>
@@ -1031,19 +1060,22 @@
         <v>848</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>962</v>
       </c>
@@ -1051,19 +1083,22 @@
         <v>980</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>980</v>
       </c>
@@ -1071,19 +1106,22 @@
         <v>993</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>994</v>
       </c>
@@ -1091,19 +1129,22 @@
         <v>1013</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1024</v>
       </c>
@@ -1111,19 +1152,22 @@
         <v>1047</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1041</v>
       </c>
@@ -1131,22 +1175,25 @@
         <v>1075</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1071</v>
       </c>
@@ -1154,16 +1201,19 @@
         <v>1085</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1080</v>
       </c>
@@ -1171,19 +1221,22 @@
         <v>1103</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1105</v>
       </c>
@@ -1191,22 +1244,25 @@
         <v>1140.5</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1144</v>
       </c>
@@ -1214,22 +1270,25 @@
         <v>1164</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1170</v>
       </c>
@@ -1237,19 +1296,22 @@
         <v>1191</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1190</v>
       </c>
@@ -1257,22 +1319,25 @@
         <v>1207</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1206</v>
       </c>
@@ -1280,19 +1345,22 @@
         <v>1223</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1256</v>
       </c>
@@ -1300,19 +1368,22 @@
         <v>1274</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1267</v>
       </c>
@@ -1320,101 +1391,104 @@
         <v>1286</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/question_test3.xlsx
+++ b/data/question_test3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAE909-42C4-4636-983C-8FFFEC0D2B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE2153D-B99A-4CF0-B0E7-28E942B5ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3076" windowWidth="14138" windowHeight="7881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10996" yWindow="65" windowWidth="14139" windowHeight="7881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
   <si>
     <t>始まり</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>抑留された時の気持ちはどうでしたか？</t>
+  </si>
+  <si>
+    <t>文字</t>
   </si>
   <si>
     <t>data\\voice\\pb_1.wav</t>
@@ -446,7 +449,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{75791D84-7264-4BBE-8EA6-F1B2B6B16B3E}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1BCAEFB2-BAE0-4CDF-B503-DC8287E4F5E3}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I35" sqref="A33:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -1416,8 +1419,11 @@
       <c r="E28" t="s">
         <v>99</v>
       </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1425,19 +1431,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1445,16 +1454,19 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1462,16 +1474,19 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1479,16 +1494,19 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/question_test3.xlsx
+++ b/data/question_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE2153D-B99A-4CF0-B0E7-28E942B5ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE327D5F-C1DD-4496-AFFD-A4747BA92F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10996" yWindow="65" windowWidth="14139" windowHeight="7881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12463" yWindow="0" windowWidth="12776" windowHeight="13523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -49,331 +49,389 @@
     <t>収容所に連れて行かれたのね、一箇所じゃないですよ。全部で7箇所ほどあっちこっちへ引っ張り回されてね、そこでいろんな重労働を強制されたわけや</t>
   </si>
   <si>
+    <t>収容所について教えてください</t>
+  </si>
+  <si>
+    <t>動画</t>
+  </si>
+  <si>
+    <t>data\\00617.mp4</t>
+  </si>
+  <si>
+    <t>どれだけ長い距離を歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>最初の収容所はどうでしたか？</t>
+  </si>
+  <si>
+    <t>収容所に電気は通っていましたか？</t>
+  </si>
+  <si>
+    <t>収容所では何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>何を食べていましたか？</t>
+  </si>
+  <si>
+    <t>昼食でどのくらいの量を食べられましたか？</t>
+  </si>
+  <si>
+    <t>栄養失調になる人はいましたか？</t>
+  </si>
+  <si>
+    <t>ごはんの影響は何かありましたか？</t>
+  </si>
+  <si>
+    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
+  </si>
+  <si>
+    <t>労働は何をしましたか？</t>
+  </si>
+  <si>
+    <t>仕事量はどうでしたか？</t>
+  </si>
+  <si>
+    <t>仕事で厳しく言われましたか？</t>
+  </si>
+  <si>
+    <t>体を壊したことはありますか？</t>
+  </si>
+  <si>
+    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
+  </si>
+  <si>
+    <t>何回死にそうだなと思いましたか？</t>
+  </si>
+  <si>
+    <t>帰ってきたときの体の状況はどうでしたか？</t>
+  </si>
+  <si>
+    <t>体重はどうでしたか？</t>
+  </si>
+  <si>
+    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
+  </si>
+  <si>
+    <t>抑留を生き抜いた秘訣は何ですか？</t>
+  </si>
+  <si>
+    <t>どれくらい歩いたことがありますか？</t>
+  </si>
+  <si>
+    <t>3日目になって昼までなんとか生きとったけど、昼出発で意識がないようになってしまった。</t>
+  </si>
+  <si>
+    <t>意識を失ったことはありますか？</t>
+  </si>
+  <si>
+    <t>意識を失って最初に違和感を覚えた場所はありますか？</t>
+  </si>
+  <si>
+    <t>倒れたあとはわしはわからんのやけど、私の友達が決まって私の面倒を見てくれたらしいです。みんなでなんとかして3日目の昼からやったから宿舎に着く手前やったもんやね</t>
+  </si>
+  <si>
+    <t>意識を失った後、友人たちは何をしてくれましたか？</t>
+  </si>
+  <si>
+    <t>いつ収容所に行きましたか？</t>
+  </si>
+  <si>
+    <t>意識は戻りましたか</t>
+  </si>
+  <si>
+    <t>そう言うとったら私の部隊が移動すると今汽車に乗って出ていくとお前はどうするで言われてね。</t>
+  </si>
+  <si>
+    <t>いやぁ私の部隊が移動するのをわしは死んでも着いていくんでね、フランスに足で駅に向かって、あのなんとかして本隊と一緒になって合流してね、何とかみんなに助けてもろた。</t>
+  </si>
+  <si>
+    <t>汽車に乗りましたか？</t>
+  </si>
+  <si>
+    <t>木はどれくらいの大きさでしたか？</t>
+  </si>
+  <si>
+    <t>伐採の内容は何でしたか？</t>
+  </si>
+  <si>
+    <t>木の伐採で危なかったことは何ですか？</t>
+  </si>
+  <si>
+    <t>木の伐採で怖かったことは何ですか？</t>
+  </si>
+  <si>
+    <t>ところが何か幸いでしたけど途中で雑木林に引っかかって私はまあなんとかその命は助かったけどもうその時も谷まで落ちとったら私の命はなかったと</t>
+  </si>
+  <si>
+    <t>伐採の時命拾いしたことはありますか？</t>
+  </si>
+  <si>
+    <t>逃げた後どうなりましたか？</t>
+  </si>
+  <si>
+    <t>死傷者は出ましたか？</t>
+  </si>
+  <si>
+    <t>それに増して、またもう100歳まで生きているので、驚いとると。もう27歳で私は完全に死んどったんです。</t>
+  </si>
+  <si>
+    <t>自分の年齢についてどう思いますか？</t>
+  </si>
+  <si>
+    <t>それが100歳になろうとしてまあ一つは気ままにですから、根性いいですから、そういうものにも助けられたんじゃないかと思いますわ。</t>
+  </si>
+  <si>
+    <t>いよいよシベリア鉄道に乗せられて、これで日本に帰れるぞということでみんなぐっすり寝てしまった。翌日、朝起きたら列車がシベリア鉄道を走っているけど、太陽が列車の後方から上がっているわけ。だまされたと憤慨した</t>
+  </si>
+  <si>
+    <t>抑留された時の気持ちはどうでしたか？</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>data\\voice\\pb_1.wav</t>
+  </si>
+  <si>
+    <t>逃亡の疑いで引っ張り出されて、１０００人がいる面前で軍刀持った人が切りつけていって、倒れたところを自動小銃を持った２人がだーっと撃って。お前ら見せしめやぞと</t>
+  </si>
+  <si>
+    <t>逃げた人はどうなりましたか？</t>
+  </si>
+  <si>
+    <t>data\\voice\\pb_2.wav</t>
+  </si>
+  <si>
+    <t>夜中になったら何か知らないけど炊いて食べている子がおるんや。何を食べとるんやろうって最初はわからなかったけど。毎日死んでいきますやろ。人体を切ってきてな、炊いて食べていたらしい。それくらいの酷い生活やった</t>
+  </si>
+  <si>
+    <t>ごはんが足らなかった場合どうしていましたか？</t>
+  </si>
+  <si>
+    <t>ごはんは足りていましたか？</t>
+  </si>
+  <si>
+    <t>data\\voice\\pb_3.wav</t>
+  </si>
+  <si>
+    <t>仲間とは食べ物の話ばっかり。零下40度にもなるシベリアじゃ、氷ぐらいしか食べるものがないんや</t>
+  </si>
+  <si>
+    <t>どれだけ寒かったですか？</t>
+  </si>
+  <si>
+    <t>仲間とはどんな話をしましたか？</t>
+  </si>
+  <si>
+    <t>data\\voice\\pb_4.wav</t>
+  </si>
+  <si>
+    <t>鼻が白くなって初めて凍傷と気づいて、慌ててこすって血行をよくした。凍傷で手や指を切った人もたくさんいた</t>
+  </si>
+  <si>
+    <t>凍傷になりましたか？</t>
+  </si>
+  <si>
+    <t>寒さでけがはしましたか？</t>
+  </si>
+  <si>
+    <t>data\\voice\\pb_5.wav</t>
+  </si>
+  <si>
     <t>全部で何箇所の収容所に連れていかれましたか？</t>
-  </si>
-  <si>
-    <t>収容所について教えてください</t>
-  </si>
-  <si>
-    <t>動画</t>
-  </si>
-  <si>
-    <t>data\\00617.mp4</t>
-  </si>
-  <si>
-    <t>一番最初の収容所はね、これはまたひどいところで、駅から歩いて80キロ。それを3日間歩かされた。山の中に連れて行かれた。そこで何をするかというと、最初は伐採でした。ちょうど10月頃から冬にかけて冬にかけての時期だった</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>何日間歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>どれだけ長い距離を歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>最初の収容所はどうでしたか？</t>
-  </si>
-  <si>
-    <t>その収容所がまた、ひどい収容所で、ガスも電気も便所も何も使えない。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>収容所ではガスや電気、トイレは使えましたか？</t>
-  </si>
-  <si>
-    <t>収容所に電気は通っていましたか？</t>
-  </si>
-  <si>
-    <t>あのね、食べてたもんは大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その収容所がまたなんというか、もうひどい収容所でね、ガスも電気も便所も何にもあらへんねん。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番最初の収容所はね、これはまたひどいところで、駅から歩いて80キロ。それを3日間歩かされた。山の中に連れて行かれた。そこで何をするかというと、最初は伐採でした。ちょうど10月頃から冬にかけての時期だった</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>普段は何食、食べることができましたか？</t>
-  </si>
-  <si>
-    <t>収容所では何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼は350グラムの黒パンが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食べ物言うたら大体は通常は3食、高粱ゆうて、これは満州で満州人が朝食にとった雑穀ですな。</t>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>昼ごはんは何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼食でどのくらいの量を食べられましたか？</t>
-  </si>
-  <si>
-    <t>だから、入った年には、みんな栄養失調になっていた。そんなこったで伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がないばいに。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼は350グラムの黒パン。これが一つだけ。それだってこのぐらいでちっさい。そんなもので腹ふくれるというのはない。おかずいうても、そんなもの良くない腐ったような野菜を一つか二つくれるぐらい。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死者は出ましたか？</t>
-  </si>
-  <si>
-    <t>栄養失調になる人はいましたか？</t>
-  </si>
-  <si>
-    <t>ごはんの影響は何かありましたか？</t>
-  </si>
-  <si>
-    <t>船場へ行くと船から米やメリケン粉とか砂糖とか、80キロから90キロぐらいの袋があり、船艇から陸へ持ち上げる。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入った年には、みんな栄養失調になっていた。そんなこったで伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>どんな労働をさせられましたか？</t>
-  </si>
-  <si>
-    <t>船場では何を運んでいましたか（船場では何を持ち上げていましたか）？</t>
-  </si>
-  <si>
-    <t>労働は何をしましたか？</t>
-  </si>
-  <si>
-    <t>だいたいノルマ制で一日だいたいこれだけの仕事をせえということを厳しい言うけどね。やけど、できんかったらもうしゃあない。できなんだらどうなるか言うたら、出来なんだら、めしやらんとか減らすとか、そんなことを言っていじめたりなんかしてたけど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>船場へ行くと船からメリケン粉とか砂糖とか、80キロや90キロぐらいの袋があって、船艇から陸へ持ち上げる。そういう重労働をさせられた。こいつはそんで力がないんだけどそういう無理な仕事をさせられたり、工場に行ったら船艇でゴミ捨てを、まぁいろんな雑役やな、掃除みたいなことをさせられたり</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>仕事にノルマはありましたか？</t>
-  </si>
-  <si>
-    <t>仕事量はどうでしたか？</t>
-  </si>
-  <si>
-    <t>仕事で厳しく言われましたか？</t>
-  </si>
-  <si>
-    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いて、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だいたいノルマ制で、一日だいたいこれだけの仕事をせえということを厳しい言うけどね。やけど、できんかったらもうしゃあない。できなんだらどうなるか言うたら、出来なんだら、めしやらんとか減らすとか、そんなことを言っていじめたりなんかしてたけど</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>病気にかかりましたか？</t>
-  </si>
-  <si>
-    <t>体を壊したことはありますか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事で圧迫される。食べるものはもう十分なものをくれない。そんな生活がずっと続いとって、私も最初のうちは辛抱しとったけど胃腸を壊しましてね。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3回死にかけた。もう意識ないところまでいって、最後にはお前はもうおそらく内地へ帰れんとみんなから言われていたけど、その時初めて糞くらいや、こんなソ連で私は死にたくないって、気持ち切り替えて横着になって、幸いになんとか命があって帰ってきましたけどな</t>
-  </si>
-  <si>
-    <t>死にそうだなって思ったこと、体感したことはありますか？</t>
-  </si>
-  <si>
-    <t>死にそうだと感じたときどんな気持ちでしたか？</t>
-  </si>
-  <si>
-    <t>何回死にそうだなと思いましたか？</t>
-  </si>
-  <si>
-    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。37キロは小学生の5、6年生ぐらいの体重やね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死にそうだなって思ったことはありましたか？</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>体重はどれくらい減りましたか？</t>
-  </si>
-  <si>
-    <t>帰ってきたときの体の状況はどうでしたか？</t>
-  </si>
-  <si>
-    <t>体重はどうでしたか？</t>
-  </si>
-  <si>
-    <t>もうほんまに痩せてて、ようこれで生きとったなって言うほど痩せてたけど、私も根性でこんなところで絶対死にたくないいうて、何とか気張ってね、いろいろ考えたけど、でもなんとか、まあ痩せはしたけど、まあなんとか帰ってきましたね。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だけどその時の65キロが普通の体重でしたけど37キロまで落ちてた。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>どうして帰ってこれたと思いますか？</t>
-  </si>
-  <si>
-    <t>抑留を生き抜いた秘訣は何ですか？</t>
-  </si>
-  <si>
-    <t>これはもうあかん。これも弱ったことやろーで、少々残っておったパンをね、1日ぐらいは食べたけどな、もう2日目から何にも食べられず、80キロの道を3日間で歩いたんや。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1日何をどれくらい食べましたか？</t>
-  </si>
-  <si>
-    <t>どれくらい歩いたことがありますか？</t>
-  </si>
-  <si>
-    <t>3日目になって昼までなんとか生きとったけど、昼出発で意識がないようになってしまった。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これも弱ったことやろーで、少々残っておったパンをね、1日ぐらいは食べたけどな、もう2日目から何にも食べられず、80キロの道を3日間で歩いたんや。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>出発をしたとき、どうなりましたか？</t>
-  </si>
-  <si>
-    <t>意識を失ったことはありますか？</t>
-  </si>
-  <si>
-    <t>自分でもわかる。意識がないようになるとおかしいことになって、野原の中をね、ものすごい天気がいい野原の中を歌を歌いもって歩いとるんや。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>意識を失った時どうなりましたか？</t>
-  </si>
-  <si>
-    <t>意識を失って最初に違和感を覚えた場所はありますか？</t>
-  </si>
-  <si>
-    <t>倒れたあとはわしはわからんのやけど、私の友達が決まって私の面倒を見てくれたらしいです。みんなでなんとかして3日目の昼からやったから宿舎に着く手前やったもんやね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>意識がないようになるとおかしいことになって、野原の中をね、ものすごい天気がいい野原の中を歌を歌いもって歩いとるんや。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>意識を失った後、誰が看病してくれたのですか？</t>
-  </si>
-  <si>
-    <t>意識を失った後、友人たちは何をしてくれましたか？</t>
-  </si>
-  <si>
-    <t>なんとか命からがらでも私を担いで連れて行ってくれて一応命があって、そんなことをこの収容所でその日収容所行ってその晩はもうそのままで明くる日の朝になってようやく意識は戻ったんやだけども何にも食べ取らへんから三日も四日も。腹は減っているえらいえらい</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>意識を失った時、どのように助かりましたか？</t>
-  </si>
-  <si>
-    <t>いつ収容所に行きましたか？</t>
-  </si>
-  <si>
-    <t>意識は戻りましたか</t>
-  </si>
-  <si>
-    <t>そう言うとったら私の部隊が移動すると今汽車に乗って出ていくとお前はどうするで言われてね。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命からがらでも私を担いで連れて行ってくれて。一応命があって、そんなことをこの収容所でその日収容所行ってその晩はもうそのままで明くる日の朝になってようやく意識は戻ったんやだけども何にも食べ取らへんから三日も四日も。腹は減っているえらいえらい</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>意識が戻ってから言われたことは何ですか？</t>
-  </si>
-  <si>
-    <t>いやぁ私の部隊が移動するのをわしは死んでも着いていくんでね、フランスに足で駅に向かって、あのなんとかして本隊と一緒になって合流してね、何とかみんなに助けてもろた。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>意識を取り戻して、最終的に助かりましたか？</t>
-  </si>
-  <si>
-    <t>汽車に乗りましたか？</t>
-  </si>
-  <si>
-    <t>伐採に行ってね、丸太をね、山の中で何組かが山に入ってる。私も2人組入って、私の上の方で一組が大きな木を切って、今から落とすぞーって、大体30センチの長さ66メートルくらいの材木を山の斜面に滑らせて落とすんです</t>
-  </si>
-  <si>
-    <t>伐採は何をしていましたか？</t>
-  </si>
-  <si>
-    <t>木はどれくらいの大きさでしたか？</t>
-  </si>
-  <si>
-    <t>伐採の内容は何でしたか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伐採では何をしていましたか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伐採に行ってね、丸太をね、山の中で何組かが山に入ってる。私も2人組で入って、私の上の方で1組が大きな木を切って、今から落とすぞーって、大体30センチの長さ66メートルくらいの材木を山の斜面に滑らせて落とすんです</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伐採をしていた時、トラブルはありましたか？</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ほったら上の方で、今から落とすぞー気つけよーってこーらえらいこっちゃ言って、そこらへんの木の裏に逃げて隠れとった。ところが木が横になるのを見ただけで山の斜面を一気に落ちていったんや。かーら見とったら危ななってね自分の隠れている木のところに向けて落ちてきた</t>
-  </si>
-  <si>
-    <t>伐採をしていた時、ハプニングはありましたか？</t>
-  </si>
-  <si>
-    <t>木の伐採で危なかったことは何ですか？</t>
-  </si>
-  <si>
-    <t>木の伐採で怖かったことは何ですか？</t>
-  </si>
-  <si>
-    <t>これはすぐにわし逃げた。その材木がわしらが隠れたとった木にぶち当たって私が逃げた方へ材木が一緒に来たらもう途端に私も材木に足を取られて材木と一緒に谷へ落ちかけた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのトラブルはどうなりましたか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これはすぐに逃げた。その材木がわしらが隠れたとった木にぶち当たって私が逃げた方へ材木が一緒に来たらもう途端に私も材木に足を取られて材木と一緒に谷へ落ちかけた</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>危ないと思ったとき、どうしましたか？</t>
-  </si>
-  <si>
-    <t>ハプニングはどうなりましたか？</t>
-  </si>
-  <si>
-    <t>ところが何か幸いでしたけど途中で雑木林に引っかかって私はまあなんとかその命は助かったけどもうその時も谷まで落ちとったら私の命はなかったと</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>谷に落ちかけたとき、助かりましたか？</t>
-  </si>
-  <si>
-    <t>伐採の時命拾いしたことはありますか？</t>
-  </si>
-  <si>
-    <t>逃げた後どうなりましたか？</t>
-  </si>
-  <si>
-    <t>そういう具合に3名ほど、苦労のうちに死にかけた。かろうじて、なんとか生きて、みんなやがて帰ってきた</t>
-  </si>
-  <si>
-    <t>木の伐採の困難な状況で死傷者は出ましたか？</t>
-  </si>
-  <si>
-    <t>死傷者は出ましたか？</t>
-  </si>
-  <si>
-    <t>それに増して、またもう100歳まで生きているので、驚いとると。もう27歳で私は完全に死んどったんです。</t>
-  </si>
-  <si>
-    <t>100歳まで生きたことに対してどう思いますか？</t>
-  </si>
-  <si>
-    <t>自分の年齢についてどう思いますか？</t>
-  </si>
-  <si>
-    <t>それが100歳になろうとしてまあ一つは気ままにですから、根性いいですから、そういうものにも助けられたんじゃないかと思いますわ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木の伐採で誰か亡くなりましたか？</t>
+    <rPh sb="5" eb="6">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3名ほど、苦労のうちに死にかけた。かろうじて、なんとか生きて、みんなやがて帰ってきたけど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100歳まで生きたことをどう思いますか？</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>今までの人生で助けれたと思うことはありますか？</t>
-  </si>
-  <si>
-    <t>いよいよシベリア鉄道に乗せられて、これで日本に帰れるぞということでみんなぐっすり寝てしまった。翌日、朝起きたら列車がシベリア鉄道を走っているけど、太陽が列車の後方から上がっているわけ。だまされたと憤慨した</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>日本に帰れなかったときの気持ちはどんなものでしたか？</t>
-  </si>
-  <si>
-    <t>抑留された時の気持ちはどうでしたか？</t>
-  </si>
-  <si>
-    <t>文字</t>
-  </si>
-  <si>
-    <t>data\\voice\\pb_1.wav</t>
-  </si>
-  <si>
-    <t>逃亡の疑いで引っ張り出されて、１０００人がいる面前で軍刀持った人が切りつけていって、倒れたところを自動小銃を持った２人がだーっと撃って。お前ら見せしめやぞと</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>逃げ出そうとしたことはありますか？</t>
-  </si>
-  <si>
-    <t>逃げた人はどうなりましたか？</t>
-  </si>
-  <si>
-    <t>data\\voice\\pb_2.wav</t>
-  </si>
-  <si>
-    <t>夜中になったら何か知らないけど炊いて食べている子がおるんや。何を食べとるんやろうって最初はわからなかったけど。毎日死んでいきますやろ。人体を切ってきてな、炊いて食べていたらしい。それくらいの酷い生活やった</t>
-  </si>
-  <si>
-    <t>ごはんが足らなかった場合どうしていましたか？</t>
-  </si>
-  <si>
-    <t>ごはんは足りていましたか？</t>
-  </si>
-  <si>
-    <t>data\\voice\\pb_3.wav</t>
-  </si>
-  <si>
-    <t>仲間とは食べ物の話ばっかり。零下40度にもなるシベリアじゃ、氷ぐらいしか食べるものがないんや</t>
-  </si>
-  <si>
-    <t>どれだけ寒かったですか？</t>
-  </si>
-  <si>
-    <t>仲間とはどんな話をしましたか？</t>
-  </si>
-  <si>
-    <t>data\\voice\\pb_4.wav</t>
-  </si>
-  <si>
-    <t>鼻が白くなって初めて凍傷と気づいて、慌ててこすって血行をよくした。凍傷で手や指を切った人もたくさんいた</t>
-  </si>
-  <si>
-    <t>凍傷になりましたか？</t>
-  </si>
-  <si>
-    <t>寒さでけがはしましたか？</t>
-  </si>
-  <si>
-    <t>data\\voice\\pb_5.wav</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -749,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I35" sqref="A33:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -792,42 +850,42 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>295</v>
+        <v>295.75</v>
       </c>
       <c r="B3">
         <v>325</v>
       </c>
       <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -838,146 +896,146 @@
         <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>420</v>
+        <v>420.5</v>
       </c>
       <c r="B5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>457</v>
+        <v>460.2</v>
       </c>
       <c r="B6">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>484</v>
+        <v>485.5</v>
       </c>
       <c r="B7">
-        <v>516</v>
+        <v>507.5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>591</v>
+        <v>591.5</v>
       </c>
       <c r="B8">
         <v>628</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B9">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -985,22 +1043,22 @@
         <v>752</v>
       </c>
       <c r="B10">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1008,25 +1066,25 @@
         <v>772</v>
       </c>
       <c r="B11">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1034,48 +1092,48 @@
         <v>803</v>
       </c>
       <c r="B12">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>820</v>
+        <v>819.5</v>
       </c>
       <c r="B13">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1083,45 +1141,45 @@
         <v>962</v>
       </c>
       <c r="B14">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>980</v>
+        <v>980.8</v>
       </c>
       <c r="B15">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1132,68 +1190,68 @@
         <v>1013</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B17">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B18">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1201,19 +1259,19 @@
         <v>1071</v>
       </c>
       <c r="B19">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1221,22 +1279,22 @@
         <v>1080</v>
       </c>
       <c r="B20">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1244,25 +1302,25 @@
         <v>1105</v>
       </c>
       <c r="B21">
-        <v>1140.5</v>
+        <v>1137</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1270,25 +1328,25 @@
         <v>1144</v>
       </c>
       <c r="B22">
-        <v>1164</v>
+        <v>1171.3</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1299,19 +1357,19 @@
         <v>1191</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1322,45 +1380,45 @@
         <v>1207</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B25">
         <v>1223</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1368,22 +1426,22 @@
         <v>1256</v>
       </c>
       <c r="B26">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1394,16 +1452,16 @@
         <v>1286</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1411,19 +1469,19 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1431,22 +1489,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1454,19 +1512,19 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1474,19 +1532,19 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1494,19 +1552,19 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/question_test3.xlsx
+++ b/data/question_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE327D5F-C1DD-4496-AFFD-A4747BA92F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A159B-CF06-435C-9BA7-3C827530E177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12463" yWindow="0" windowWidth="12776" windowHeight="13523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10996" yWindow="65" windowWidth="14139" windowHeight="7881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
